--- a/5/Teorver_and_matstat/Лабораборные решение.xlsx
+++ b/5/Teorver_and_matstat/Лабораборные решение.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepo\Education\5\Teorver_and_matstat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F88F6-2281-4E5B-9930-A82E7423C9F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB66AC-13F1-4B60-97D7-2E5AA5D5194A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Лист6" sheetId="5" r:id="rId3"/>
     <sheet name="Лист5" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Y</t>
   </si>
@@ -206,12 +206,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -267,18 +273,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -6280,7 +6281,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6348,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>$A$2+$B$2*A4</f>
+        <f t="shared" ref="B4:B35" si="0">$A$2+$B$2*A4</f>
         <v>9</v>
       </c>
       <c r="C4">
@@ -6368,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f>$A$2+$B$2*A5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C5">
@@ -6379,7 +6380,7 @@
         <v>5.9345116217737086</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E53" si="0">C$2+D$2*A5</f>
+        <f t="shared" ref="E5:E53" si="1">C$2+D$2*A5</f>
         <v>7.2405752188903101</v>
       </c>
     </row>
@@ -6388,18 +6389,18 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f>$A$2+$B$2*A6</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C6">
         <v>13.36470631940756</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D53" si="1">A$2+B$2*A6+C6</f>
+        <f t="shared" ref="D6:D53" si="2">A$2+B$2*A6+C6</f>
         <v>28.36470631940756</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.424208774180778</v>
       </c>
     </row>
@@ -6408,18 +6409,18 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f>$A$2+$B$2*A7</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C7">
         <v>-28.758404369000345</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-10.758404369000345</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>-10.758404369000345</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
         <v>13.607842329471247</v>
       </c>
     </row>
@@ -6428,18 +6429,18 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f>$A$2+$B$2*A8</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C8">
         <v>7.4195668275933713</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>28.419566827593371</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>28.419566827593371</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
         <v>16.791475884761716</v>
       </c>
     </row>
@@ -6448,18 +6449,18 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <f>$A$2+$B$2*A9</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C9">
         <v>-12.217697076266631</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>11.782302923733369</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>11.782302923733369</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
         <v>19.975109440052183</v>
       </c>
     </row>
@@ -6468,18 +6469,18 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <f>$A$2+$B$2*A10</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C10">
         <v>29.018974601058289</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>56.018974601058289</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>56.018974601058289</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
         <v>23.158742995342649</v>
       </c>
     </row>
@@ -6488,18 +6489,18 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <f>$A$2+$B$2*A11</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C11">
         <v>-13.651106200995855</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>16.348893799004145</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>16.348893799004145</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
         <v>26.342376550633119</v>
       </c>
     </row>
@@ -6508,18 +6509,18 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <f>$A$2+$B$2*A12</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C12">
         <v>-13.598992154584266</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>19.401007845415734</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>19.401007845415734</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
         <v>29.526010105923589</v>
       </c>
     </row>
@@ -6528,18 +6529,18 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <f>$A$2+$B$2*A13</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C13">
         <v>-6.8115696194581687</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>29.188430380541831</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>29.188430380541831</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
         <v>32.709643661214059</v>
       </c>
     </row>
@@ -6548,18 +6549,18 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <f>$A$2+$B$2*A14</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C14">
         <v>-24.020391720114276</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>14.979608279885724</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>14.979608279885724</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
         <v>35.893277216504522</v>
       </c>
     </row>
@@ -6568,18 +6569,18 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <f>$A$2+$B$2*A15</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C15">
         <v>8.3072336565237492</v>
       </c>
       <c r="D15">
+        <f t="shared" si="2"/>
+        <v>50.307233656523749</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>50.307233656523749</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
         <v>39.076910771794992</v>
       </c>
     </row>
@@ -6588,18 +6589,18 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <f>$A$2+$B$2*A16</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C16">
         <v>20.499783204286359</v>
       </c>
       <c r="D16">
+        <f t="shared" si="2"/>
+        <v>65.499783204286359</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>65.499783204286359</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
         <v>42.260544327085462</v>
       </c>
     </row>
@@ -6608,18 +6609,18 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <f>$A$2+$B$2*A17</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C17">
         <v>11.889278539456427</v>
       </c>
       <c r="D17">
+        <f t="shared" si="2"/>
+        <v>59.889278539456427</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>59.889278539456427</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
         <v>45.444177882375925</v>
       </c>
     </row>
@@ -6628,18 +6629,18 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <f>$A$2+$B$2*A18</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C18">
         <v>2.9752527552773245</v>
       </c>
       <c r="D18">
+        <f t="shared" si="2"/>
+        <v>53.975252755277324</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>53.975252755277324</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
         <v>48.627811437666395</v>
       </c>
     </row>
@@ -6648,18 +6649,18 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <f>$A$2+$B$2*A19</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C19">
         <v>20.345169104984961</v>
       </c>
       <c r="D19">
+        <f t="shared" si="2"/>
+        <v>74.345169104984961</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>74.345169104984961</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
         <v>51.811444992956865</v>
       </c>
       <c r="J19" t="s">
@@ -6671,18 +6672,18 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <f>$A$2+$B$2*A20</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C20">
         <v>2.4826022126944736</v>
       </c>
       <c r="D20">
+        <f t="shared" si="2"/>
+        <v>59.482602212694474</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>59.482602212694474</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
         <v>54.995078548247335</v>
       </c>
     </row>
@@ -6691,18 +6692,18 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <f>$A$2+$B$2*A21</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C21">
         <v>-3.4324330044910312</v>
       </c>
       <c r="D21">
+        <f t="shared" si="2"/>
+        <v>56.567566995508969</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>56.567566995508969</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
         <v>58.178712103537805</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -6715,18 +6716,18 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <f>$A$2+$B$2*A22</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C22">
         <v>-13.337967175175436</v>
       </c>
       <c r="D22">
+        <f t="shared" si="2"/>
+        <v>49.662032824824564</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>49.662032824824564</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
         <v>61.362345658828268</v>
       </c>
       <c r="G22">
@@ -6748,18 +6749,18 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <f>$A$2+$B$2*A23</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C23">
         <v>1.7410002328688279</v>
       </c>
       <c r="D23">
+        <f t="shared" si="2"/>
+        <v>67.741000232868828</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>67.741000232868828</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
         <v>64.545979214118745</v>
       </c>
       <c r="G23">
@@ -6780,18 +6781,18 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <f>$A$2+$B$2*A24</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C24">
         <v>0.61743321566609666</v>
       </c>
       <c r="D24">
+        <f t="shared" si="2"/>
+        <v>69.617433215666097</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>69.617433215666097</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
         <v>67.729612769409201</v>
       </c>
       <c r="G24">
@@ -6812,18 +6813,18 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <f>$A$2+$B$2*A25</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C25">
         <v>-3.140894477837719</v>
       </c>
       <c r="D25">
+        <f t="shared" si="2"/>
+        <v>68.859105522162281</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>68.859105522162281</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
         <v>70.913246324699671</v>
       </c>
       <c r="G25">
@@ -6844,18 +6845,18 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <f>$A$2+$B$2*A26</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C26">
         <v>4.6852164814481512</v>
       </c>
       <c r="D26">
+        <f t="shared" si="2"/>
+        <v>79.685216481448151</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>79.685216481448151</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
         <v>74.096879879990141</v>
       </c>
       <c r="G26">
@@ -6876,18 +6877,18 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <f>$A$2+$B$2*A27</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C27">
         <v>-9.4179313236963935</v>
       </c>
       <c r="D27">
+        <f t="shared" si="2"/>
+        <v>68.582068676303606</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>68.582068676303606</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
         <v>77.280513435280611</v>
       </c>
     </row>
@@ -6896,18 +6897,18 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <f>$A$2+$B$2*A28</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C28">
         <v>-24.045584723353386</v>
       </c>
       <c r="D28">
+        <f t="shared" si="2"/>
+        <v>56.954415276646614</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>56.954415276646614</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
         <v>80.464146990571081</v>
       </c>
       <c r="J28" t="s">
@@ -6919,18 +6920,18 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <f>$A$2+$B$2*A29</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C29">
         <v>8.1806547314045019</v>
       </c>
       <c r="D29">
+        <f t="shared" si="2"/>
+        <v>92.180654731404502</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>92.180654731404502</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
         <v>83.647780545861551</v>
       </c>
       <c r="J29" s="3"/>
@@ -6955,18 +6956,18 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <f>$A$2+$B$2*A30</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="C30">
         <v>-19.314666133141145</v>
       </c>
       <c r="D30">
+        <f t="shared" si="2"/>
+        <v>67.685333866858855</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>67.685333866858855</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
         <v>86.831414101152021</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -6993,18 +6994,18 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <f>$A$2+$B$2*A31</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="C31">
         <v>27.425267035141587</v>
       </c>
       <c r="D31">
+        <f t="shared" si="2"/>
+        <v>117.42526703514159</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>117.42526703514159</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
         <v>90.015047656442476</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -7027,18 +7028,18 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <f>$A$2+$B$2*A32</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="C32">
         <v>-12.335885912762024</v>
       </c>
       <c r="D32">
+        <f t="shared" si="2"/>
+        <v>80.664114087237976</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="1"/>
-        <v>80.664114087237976</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
         <v>93.198681211732946</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -7059,18 +7060,18 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <f>$A$2+$B$2*A33</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="C33">
         <v>8.759707270655781</v>
       </c>
       <c r="D33">
+        <f t="shared" si="2"/>
+        <v>104.75970727065578</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>104.75970727065578</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
         <v>96.382314767023416</v>
       </c>
     </row>
@@ -7079,18 +7080,18 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <f>$A$2+$B$2*A34</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="C34">
         <v>18.365653886576183</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>117.36565388657618</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
-        <v>117.36565388657618</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
         <v>99.565948322313886</v>
       </c>
       <c r="J34" s="3"/>
@@ -7124,18 +7125,18 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <f>$A$2+$B$2*A35</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="C35">
         <v>4.4135731513961218</v>
       </c>
       <c r="D35">
+        <f t="shared" si="2"/>
+        <v>106.41357315139612</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
-        <v>106.41357315139612</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
         <v>102.74958187760436</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -7171,18 +7172,18 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <f>$A$2+$B$2*A36</f>
+        <f t="shared" ref="B36:B67" si="3">$A$2+$B$2*A36</f>
         <v>105</v>
       </c>
       <c r="C36">
         <v>-11.504425856401213</v>
       </c>
       <c r="D36">
+        <f t="shared" si="2"/>
+        <v>93.495574143598787</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>93.495574143598787</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
         <v>105.93321543289483</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -7218,18 +7219,18 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <f>$A$2+$B$2*A37</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="C37">
         <v>12.794407666660845</v>
       </c>
       <c r="D37">
+        <f t="shared" si="2"/>
+        <v>120.79440766666085</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="1"/>
-        <v>120.79440766666085</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
         <v>109.1168489881853</v>
       </c>
     </row>
@@ -7238,18 +7239,18 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <f>$A$2+$B$2*A38</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="C38">
         <v>8.4374960351851769</v>
       </c>
       <c r="D38">
+        <f t="shared" si="2"/>
+        <v>119.43749603518518</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="1"/>
-        <v>119.43749603518518</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
         <v>112.30048254347577</v>
       </c>
     </row>
@@ -7258,18 +7259,18 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <f>$A$2+$B$2*A39</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="C39">
         <v>13.573935575550422</v>
       </c>
       <c r="D39">
+        <f t="shared" si="2"/>
+        <v>127.57393557555042</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="1"/>
-        <v>127.57393557555042</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
         <v>115.48411609876624</v>
       </c>
     </row>
@@ -7278,18 +7279,18 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <f>$A$2+$B$2*A40</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="C40">
         <v>-18.522496247896925</v>
       </c>
       <c r="D40">
+        <f t="shared" si="2"/>
+        <v>98.477503752103075</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="1"/>
-        <v>98.477503752103075</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
         <v>118.66774965405669</v>
       </c>
     </row>
@@ -7298,18 +7299,18 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <f>$A$2+$B$2*A41</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="C41">
         <v>0.31595845939591527</v>
       </c>
       <c r="D41">
+        <f t="shared" si="2"/>
+        <v>120.31595845939592</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="1"/>
-        <v>120.31595845939592</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
         <v>121.85138320934716</v>
       </c>
     </row>
@@ -7318,18 +7319,18 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <f>$A$2+$B$2*A42</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="C42">
         <v>-18.839637050405145</v>
       </c>
       <c r="D42">
+        <f t="shared" si="2"/>
+        <v>104.16036294959486</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="1"/>
-        <v>104.16036294959486</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
         <v>125.03501676463763</v>
       </c>
     </row>
@@ -7338,18 +7339,18 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <f>$A$2+$B$2*A43</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="C43">
         <v>-11.186330084456131</v>
       </c>
       <c r="D43">
+        <f t="shared" si="2"/>
+        <v>114.81366991554387</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="1"/>
-        <v>114.81366991554387</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
         <v>128.21865031992809</v>
       </c>
     </row>
@@ -7358,18 +7359,18 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <f>$A$2+$B$2*A44</f>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="C44">
         <v>22.017866285750642</v>
       </c>
       <c r="D44">
+        <f t="shared" si="2"/>
+        <v>151.01786628575064</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="1"/>
-        <v>151.01786628575064</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
         <v>131.40228387521856</v>
       </c>
     </row>
@@ -7378,18 +7379,18 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <f>$A$2+$B$2*A45</f>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="C45">
         <v>-29.487182473530993</v>
       </c>
       <c r="D45">
+        <f t="shared" si="2"/>
+        <v>102.51281752646901</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="1"/>
-        <v>102.51281752646901</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
         <v>134.58591743050903</v>
       </c>
     </row>
@@ -7398,18 +7399,18 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <f>$A$2+$B$2*A46</f>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="C46">
         <v>-32.717071007937193</v>
       </c>
       <c r="D46">
+        <f t="shared" si="2"/>
+        <v>102.28292899206281</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="1"/>
-        <v>102.28292899206281</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
         <v>137.7695509857995</v>
       </c>
     </row>
@@ -7418,18 +7419,18 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <f>$A$2+$B$2*A47</f>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="C47">
         <v>5.2722953114425763</v>
       </c>
       <c r="D47">
+        <f t="shared" si="2"/>
+        <v>143.27229531144258</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="1"/>
-        <v>143.27229531144258</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
         <v>140.95318454108997</v>
       </c>
     </row>
@@ -7438,18 +7439,18 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <f>$A$2+$B$2*A48</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="C48">
         <v>-26.378120310255326</v>
       </c>
       <c r="D48">
+        <f t="shared" si="2"/>
+        <v>114.62187968974467</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
-        <v>114.62187968974467</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
         <v>144.13681809638044</v>
       </c>
     </row>
@@ -7458,18 +7459,18 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <f>$A$2+$B$2*A49</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="C49">
         <v>15.156319932430051</v>
       </c>
       <c r="D49">
+        <f t="shared" si="2"/>
+        <v>159.15631993243005</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="1"/>
-        <v>159.15631993243005</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
         <v>147.32045165167091</v>
       </c>
     </row>
@@ -7478,18 +7479,18 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <f>$A$2+$B$2*A50</f>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="C50">
         <v>43.202453525736928</v>
       </c>
       <c r="D50">
+        <f t="shared" si="2"/>
+        <v>190.20245352573693</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="1"/>
-        <v>190.20245352573693</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
         <v>150.50408520696138</v>
       </c>
     </row>
@@ -7498,18 +7499,18 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <f>$A$2+$B$2*A51</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="C51">
         <v>36.704841477330774</v>
       </c>
       <c r="D51">
+        <f t="shared" si="2"/>
+        <v>186.70484147733077</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="1"/>
-        <v>186.70484147733077</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
         <v>153.68771876225185</v>
       </c>
     </row>
@@ -7518,18 +7519,18 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <f>$A$2+$B$2*A52</f>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="C52">
         <v>3.542731974448543</v>
       </c>
       <c r="D52">
+        <f t="shared" si="2"/>
+        <v>156.54273197444854</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="1"/>
-        <v>156.54273197444854</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
         <v>156.87135231754232</v>
       </c>
     </row>
@@ -7538,18 +7539,18 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <f>$A$2+$B$2*A53</f>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="C53">
         <v>-0.98339114629197866</v>
       </c>
       <c r="D53">
+        <f t="shared" si="2"/>
+        <v>155.01660885370802</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="1"/>
-        <v>155.01660885370802</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
         <v>160.05498587283279</v>
       </c>
     </row>
@@ -7566,11 +7567,11 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
@@ -7583,235 +7584,235 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>11.867694090000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <f>IF(B2&gt;B$38,1,IF(B2=B$38, 0, -1))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.9270163250000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C35" si="0">IF(B3&gt;B$38,1,IF(B3=B$38, 0, -1))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.6774924819999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3.4606156920000002</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>12.150268199999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>15.704595879999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10.63523599</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>9.7894858350000007</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10.61451003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>20.416072679999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>21.510001760000002</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>16.264584719999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>12.8312562</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>14.188779889999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>23.671278709999999</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>28.390164349999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>20.835711360000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>17.459056870000001</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>20.268778699999999</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <f xml:space="preserve"> MEDIAN(B2:B35)</f>
         <v>22.590640235000002</v>
@@ -8484,7 +8485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A75F5A7-A100-46B9-9572-3064F2464C06}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -8604,15 +8605,15 @@
         <v>-0.5128131784997727</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I31" si="2">(1/H$2)*(SUM(B3,B8,B13,B18,B23,B28)-SUM(E3,E8,E13,E18,E23,E28))</f>
+        <f t="shared" ref="I3:I6" si="2">(1/H$2)*(SUM(B3,B8,B13,B18,B23,B28)-SUM(E3,E8,E13,E18,E23,E28))</f>
         <v>-0.64696727999900827</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="3">E3+I3</f>
+        <f t="shared" ref="J3:J30" si="3">E3+I3</f>
         <v>6.792862223500765</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K31" si="4">B3-J3</f>
+        <f t="shared" ref="K3:K30" si="4">B3-J3</f>
         <v>0.13415410149923535</v>
       </c>
       <c r="L3">
